--- a/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.96</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>005609</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>富国军工主题混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>65.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000513</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国高端制造行业股票</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1272</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.79</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>9.01</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>富国国家安全主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>96.94</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6612</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>164402</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>前海开源中航军工指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>13.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>000513</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>富国高端制造行业股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>164402</t>
+          <t>004183</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源中航军工指数</t>
+          <t>富国产业升级混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006845</t>
+          <t>005357</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信建投聚利混合C</t>
+          <t>富国国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004183</t>
+          <t>002703</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国产业升级混合</t>
+          <t>长城久源灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>580009</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>东吴多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002631</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合C</t>
+          <t>江信瑞福灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>85.32</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002703</t>
+          <t>002631</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长城久源灵活配置混合</t>
+          <t>江信瑞福灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005357</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国国企改革灵活配置混合</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005609</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国军工主题混合A</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>580009</t>
+          <t>006845</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东吴多策略灵活配置混合</t>
+          <t>中信建投聚利混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>005609</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国军工主题混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>115.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>50.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.49</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.08</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>010966</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>富国成长领航混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.92</t>
+          <t>76.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>33.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006845</t>
+          <t>011113</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投聚利混合C</t>
+          <t>富国军工主题混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39.92</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005609</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国军工主题混合A</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011113</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国军工主题混合C</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010966</t>
+          <t>006845</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国成长领航混合</t>
+          <t>中信建投聚利混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33.43</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2625</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1878</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1752,4 +1753,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1378</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3879</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,4 +1962,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.08</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.21</v>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.05</v>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2059</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2049,13 +2136,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9930</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2559,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2570,17 +2571,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2590,14 +2611,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.89</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2606,14 +2649,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.08</v>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2622,14 +2687,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.21</v>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6566</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2638,14 +2725,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.05</v>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3632</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2654,13 +2763,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.53</v>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.89</v>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.08</v>
       </c>
     </row>
     <row r="5">
@@ -3227,14 +3314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.21</v>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4357</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3243,14 +3352,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.05</v>
       </c>
     </row>
     <row r="7">
@@ -3259,13 +3390,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>7.5</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>13.53</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>16.89</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>9.08</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>16.21</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>11.05</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.87</v>
       </c>
     </row>
@@ -600,6 +617,592 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1027,594 +1630,6 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005609</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国军工主题混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>74.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8368</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>39.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.8012</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010966</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国成长领航混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.6566</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010662</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国均衡优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>49.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.3632</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国军工主题混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3186</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168501</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>北信瑞丰产业升级多策略混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2272</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002535</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0824</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0454</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008773</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银景泰回报混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>25.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>33.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0412</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>163823</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>48.41</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002536</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0281</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002288</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中银稳进策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>66.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1690,26 +1705,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0126</t>
+          <t>3.8368</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1718,36 +1733,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.21</t>
+          <t>39.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.3359</t>
+          <t>3.8012</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1771,17 +1786,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.2059</t>
+          <t>2.6566</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1794,36 +1809,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007731</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合A</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>40.98</t>
+          <t>49.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1801</t>
+          <t>2.3632</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1832,36 +1847,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>011113</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国军工主题混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9930</t>
+          <t>0.3186</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1870,36 +1885,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011113</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国军工主题混合C</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4993</t>
+          <t>0.2272</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1908,36 +1923,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002181</t>
+          <t>002535</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安大安全主题灵活配置混合</t>
+          <t>中银鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1835</t>
+          <t>0.0824</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1946,36 +1961,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011815</t>
+          <t>002885</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恒越优势精选混合型发起式证券投资基金</t>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1408</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1984,36 +1999,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>008773</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>中银景泰回报混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0913</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2022,36 +2037,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>33.73</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0833</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2060,32 +2075,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003670</t>
+          <t>163823</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融物联网主题灵活配置混合</t>
+          <t>中银稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>48.41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0793</t>
+          <t>0.0349</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2098,36 +2113,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0684</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2136,36 +2151,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007732</t>
+          <t>002536</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合C</t>
+          <t>中银鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -2174,36 +2189,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001866</t>
+          <t>002288</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
+          <t>中银稳进策略灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>66.42</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2212,6 +2227,594 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2059</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9930</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2419,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2703,7 +3306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3025,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002389-航天彩虹.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>6.59</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>7.5</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>13.53</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>16.89</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>9.08</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>16.21</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>11.05</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.87</v>
       </c>
     </row>
@@ -616,7 +633,1515 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8781</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1272</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6612</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5688</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4652</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015443</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015444</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1202,7 +2727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1630,594 +3155,6 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005609</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国军工主题混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>74.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8368</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>39.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.8012</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010966</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国成长领航混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.6566</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010662</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国均衡优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>49.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.3632</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国军工主题混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3186</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168501</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>北信瑞丰产业升级多策略混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2272</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002535</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0824</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0454</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008773</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银景泰回报混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>25.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>33.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0412</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>163823</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>48.41</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002536</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.93</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0281</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002288</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中银稳进策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>66.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2293,26 +3230,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.0126</t>
+          <t>3.8368</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2321,36 +3258,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>001985</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>富国低碳新经济混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.21</t>
+          <t>39.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.3359</t>
+          <t>3.8012</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2374,17 +3311,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.2059</t>
+          <t>2.6566</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2397,36 +3334,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007731</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合A</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>40.98</t>
+          <t>49.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1801</t>
+          <t>2.3632</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2435,36 +3372,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001985</t>
+          <t>011113</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合A</t>
+          <t>富国军工主题混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9930</t>
+          <t>0.3186</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2473,36 +3410,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011113</t>
+          <t>168501</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国军工主题混合C</t>
+          <t>北信瑞丰产业升级多策略混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4993</t>
+          <t>0.2272</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2511,36 +3448,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002181</t>
+          <t>002535</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安大安全主题灵活配置混合</t>
+          <t>中银鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1835</t>
+          <t>0.0824</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2549,36 +3486,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011815</t>
+          <t>002885</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恒越优势精选混合型发起式证券投资基金</t>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1408</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2587,36 +3524,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011306</t>
+          <t>008773</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国低碳新经济混合C</t>
+          <t>中银景泰回报混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0913</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2625,36 +3562,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001056</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>北信瑞丰健康生活主题灵活配置混合</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>33.73</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0833</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2663,32 +3600,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003670</t>
+          <t>163823</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融物联网主题灵活配置混合</t>
+          <t>中银稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>48.41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0793</t>
+          <t>0.0349</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2701,36 +3638,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>011306</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>富国低碳新经济混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0684</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2739,36 +3676,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007732</t>
+          <t>002536</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合C</t>
+          <t>中银鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>20.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -2777,36 +3714,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001866</t>
+          <t>002288</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
+          <t>中银稳进策略灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>66.42</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2815,6 +3752,594 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.0126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2059</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9930</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3022,7 +4547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3306,7 +4831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3626,706 +5151,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001985</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>66.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.9279</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005609</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国军工主题混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>65.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5.8781</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009693</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国积极成长一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1272</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011113</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国军工主题混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7181</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001268</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国国家安全主题混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6612</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164402</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源中航军工指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5581</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000513</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国高端制造行业股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5435</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000029</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国宏观策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1706</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004183</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国产业升级混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1520</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005357</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002703</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城久源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>580009</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002630</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011306</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富国低碳新经济混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.71</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001914</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006845</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>